--- a/.transfer your modding stuff here/### Numahr/Concept and Design/Laws & Government/Soul based laws.xlsx
+++ b/.transfer your modding stuff here/### Numahr/Concept and Design/Laws & Government/Soul based laws.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,57 +21,90 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
+    <t>Soul Based Laws</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Succession</t>
+  </si>
+  <si>
+    <t>can_imprison_without_reason</t>
+  </si>
+  <si>
+    <t>can_revoke_without_reason</t>
+  </si>
+  <si>
+    <t>free_retract_vassalage</t>
+  </si>
+  <si>
+    <t>allowed_holdings_religion</t>
+  </si>
+  <si>
     <t>Investituture</t>
   </si>
   <si>
-    <t>Succession</t>
+    <t>Title Revokation</t>
+  </si>
+  <si>
+    <t>Light troops</t>
+  </si>
+  <si>
+    <t>Heavy troops</t>
+  </si>
+  <si>
+    <t>Morale</t>
+  </si>
+  <si>
+    <t>Vassal limit</t>
+  </si>
+  <si>
+    <t>Demesne size</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Vassal opinion</t>
+  </si>
+  <si>
+    <t>City min levy</t>
+  </si>
+  <si>
+    <t>Castle min levy</t>
+  </si>
+  <si>
+    <t>temple min levy</t>
+  </si>
+  <si>
+    <t>castle_vassal_tax_modifier</t>
+  </si>
+  <si>
+    <t>city_vassal_tax_modifier</t>
+  </si>
+  <si>
+    <t>temple_vassal_tax_modifier</t>
   </si>
   <si>
     <t>Populist</t>
   </si>
   <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Anarchical</t>
+  </si>
+  <si>
     <t>open_elective</t>
   </si>
   <si>
-    <t>Title Revokation</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Light troops</t>
-  </si>
-  <si>
-    <t>Heavy troops</t>
-  </si>
-  <si>
-    <t>Morale</t>
-  </si>
-  <si>
-    <t>Demesne size</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>Vassal opinion</t>
-  </si>
-  <si>
-    <t>City min levy</t>
-  </si>
-  <si>
-    <t>Castle min levy</t>
-  </si>
-  <si>
-    <t>temple min levy</t>
-  </si>
-  <si>
     <t>People's Power</t>
   </si>
   <si>
-    <t>Liberty</t>
-  </si>
-  <si>
     <t>Autonomy</t>
   </si>
   <si>
@@ -84,76 +117,91 @@
     <t>Cult</t>
   </si>
   <si>
-    <t>Vassal limit</t>
-  </si>
-  <si>
-    <t>castle_vassal_tax_modifier</t>
-  </si>
-  <si>
-    <t>city_vassal_tax_modifier</t>
-  </si>
-  <si>
-    <t>temple_vassal_tax_modifier</t>
+    <t>Demagogic</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>Clerical</t>
   </si>
   <si>
+    <t>Clergy's Power</t>
+  </si>
+  <si>
+    <t>Balanced</t>
+  </si>
+  <si>
+    <t>Mystic</t>
+  </si>
+  <si>
+    <t>temple (syntax?)</t>
+  </si>
+  <si>
     <t>Statist</t>
   </si>
   <si>
+    <t>Implicit</t>
+  </si>
+  <si>
+    <t>State Structure</t>
+  </si>
+  <si>
+    <t>Limited</t>
+  </si>
+  <si>
+    <t>Bureaucratic</t>
+  </si>
+  <si>
+    <t>Totalitarian</t>
+  </si>
+  <si>
     <t>Martial</t>
   </si>
   <si>
+    <t>Army's Power</t>
+  </si>
+  <si>
     <t>Traditional</t>
   </si>
   <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Weigh of Tradition</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Influential</t>
+  </si>
+  <si>
+    <t>Instrumentalized</t>
+  </si>
+  <si>
+    <t>Re-invented</t>
+  </si>
+  <si>
+    <t>Golden Age</t>
+  </si>
+  <si>
     <t>Messianic</t>
   </si>
   <si>
-    <t>Clergy's Power</t>
-  </si>
-  <si>
-    <t>Army's Power</t>
-  </si>
-  <si>
-    <t>Weigh of Tradition</t>
-  </si>
-  <si>
-    <t>Absolute</t>
-  </si>
-  <si>
-    <t>Influential</t>
-  </si>
-  <si>
-    <t>Instrumentalized</t>
-  </si>
-  <si>
-    <t>Strong</t>
-  </si>
-  <si>
-    <t>Re-invented</t>
-  </si>
-  <si>
-    <t>Balanced</t>
-  </si>
-  <si>
-    <t>State Structure</t>
-  </si>
-  <si>
-    <t>Implicit</t>
-  </si>
-  <si>
-    <t>Limited</t>
-  </si>
-  <si>
-    <t>Bureaucratic</t>
-  </si>
-  <si>
-    <t>Totalitarian</t>
-  </si>
-  <si>
-    <t>Soul Based Laws</t>
+    <t>Spontaneous</t>
+  </si>
+  <si>
+    <t>Messianism</t>
+  </si>
+  <si>
+    <t>Decentralized</t>
+  </si>
+  <si>
+    <t>Controled</t>
+  </si>
+  <si>
+    <t>Guided</t>
   </si>
   <si>
     <t>Scholarly</t>
@@ -165,77 +213,29 @@
     <t>Scholarly debate</t>
   </si>
   <si>
-    <t>Controled</t>
+    <t>Innovative</t>
   </si>
   <si>
     <t>Conservative</t>
   </si>
   <si>
-    <t>Messianism</t>
-  </si>
-  <si>
-    <t>Spontaneous</t>
-  </si>
-  <si>
-    <t>Guided</t>
-  </si>
-  <si>
-    <t>Anarchical</t>
-  </si>
-  <si>
-    <t>Innovative</t>
-  </si>
-  <si>
-    <t>Demagogic</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Traditionalist</t>
-  </si>
-  <si>
     <t>Scholastic</t>
   </si>
   <si>
-    <t>can_imprison_without_reason</t>
-  </si>
-  <si>
-    <t>can_revoke_without_reason</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Anarchical:</t>
   </si>
   <si>
     <t>can_create_kingdoms = no</t>
   </si>
   <si>
-    <t>Decentralized</t>
-  </si>
-  <si>
-    <t>free_retract_vassalage</t>
-  </si>
-  <si>
-    <t>allowed_holdings_religion</t>
-  </si>
-  <si>
-    <t>temple (syntax?)</t>
-  </si>
-  <si>
     <t>no_vassal_tax</t>
-  </si>
-  <si>
-    <t>Mystic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -582,11 +582,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
@@ -596,94 +596,94 @@
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="D3" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" t="s">
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
         <v>22</v>
-      </c>
-      <c r="W3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
       </c>
       <c r="B4">
         <v>-2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -713,15 +713,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>-1</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L5">
         <v>0.5</v>
@@ -751,20 +751,20 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -791,24 +791,24 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="P8">
         <v>3</v>
@@ -835,70 +835,70 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>-2</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>-1</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>-2</v>
@@ -907,301 +907,301 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>-1</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>-2</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>-1</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>-2</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>-1</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B34">
         <v>-2</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>-1</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
         <v>61</v>
-      </c>
-      <c r="G38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>45</v>
       </c>
       <c r="B40">
         <v>-2</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>-1</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/.transfer your modding stuff here/### Numahr/Concept and Design/Laws & Government/Soul based laws.xlsx
+++ b/.transfer your modding stuff here/### Numahr/Concept and Design/Laws & Government/Soul based laws.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>Soul Based Laws</t>
   </si>
@@ -144,18 +144,12 @@
     <t>Implicit</t>
   </si>
   <si>
-    <t>State Structure</t>
-  </si>
-  <si>
     <t>Limited</t>
   </si>
   <si>
     <t>Bureaucratic</t>
   </si>
   <si>
-    <t>Totalitarian</t>
-  </si>
-  <si>
     <t>Martial</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>Absolute</t>
   </si>
   <si>
-    <t>Weigh of Tradition</t>
-  </si>
-  <si>
     <t>Strong</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>Spontaneous</t>
   </si>
   <si>
-    <t>Messianism</t>
-  </si>
-  <si>
     <t>Decentralized</t>
   </si>
   <si>
@@ -210,9 +198,6 @@
     <t>Libertarian</t>
   </si>
   <si>
-    <t>Scholarly debate</t>
-  </si>
-  <si>
     <t>Innovative</t>
   </si>
   <si>
@@ -229,13 +214,31 @@
   </si>
   <si>
     <t>no_vassal_tax</t>
+  </si>
+  <si>
+    <t>State Power</t>
+  </si>
+  <si>
+    <t>Power of Tradition</t>
+  </si>
+  <si>
+    <t>Messianic Power</t>
+  </si>
+  <si>
+    <t>Scholarly Debate</t>
+  </si>
+  <si>
+    <t>Absolutism</t>
+  </si>
+  <si>
+    <t>Autonomous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,7 +287,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -583,10 +586,10 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
@@ -596,12 +599,12 @@
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -666,7 +669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -713,7 +716,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -751,7 +754,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -759,7 +762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -791,7 +794,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -835,7 +838,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -846,7 +849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -854,10 +857,10 @@
         <v>-1</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0</v>
       </c>
@@ -865,15 +868,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2</v>
       </c>
@@ -896,7 +899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -907,18 +910,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>-1</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -926,23 +929,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
         <v>33</v>
@@ -954,9 +957,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>-2</v>
@@ -965,9 +968,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <v>-1</v>
@@ -976,7 +979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0</v>
       </c>
@@ -984,7 +987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1</v>
       </c>
@@ -992,7 +995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2</v>
       </c>
@@ -1000,65 +1003,65 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>47</v>
       </c>
       <c r="B28">
         <v>-2</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>-1</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>33</v>
@@ -1070,48 +1073,48 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>-2</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B35">
         <v>-1</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
         <v>33</v>
@@ -1131,53 +1134,53 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B40">
         <v>-2</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B41">
         <v>-1</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F44" t="s">
         <v>33</v>
@@ -1189,19 +1192,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
